--- a/ExcelHomeSalesYajyuamYangF24.xlsx
+++ b/ExcelHomeSalesYajyuamYangF24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cd19f68b44ea426/Desktop/QMBE_1320_Yajyuam_Yang_F24/QMBE_1320_Yajyuam_Yang_F24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73B06B3-2926-4C36-BAF8-7B1FB556A6FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{C73B06B3-2926-4C36-BAF8-7B1FB556A6FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FCCF1C29-3D25-4BDB-8DA7-DB452CAC2350}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11124" windowHeight="10476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Home Sale</t>
   </si>
@@ -39,6 +38,42 @@
   </si>
   <si>
     <t>Mode2</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard Dev.</t>
+  </si>
+  <si>
+    <t>Coeff. Of Var.</t>
+  </si>
+  <si>
+    <t>85th Percentile</t>
+  </si>
+  <si>
+    <t>1st Quartile</t>
+  </si>
+  <si>
+    <t>2nd Quartile</t>
+  </si>
+  <si>
+    <t>3rd Quartile</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Z-score</t>
   </si>
 </sst>
 </file>
@@ -48,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,14 +111,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -101,22 +128,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -456,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,203 +517,627 @@
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>138000</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>AVERAGE(B2:B13)</f>
         <v>219937.5</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
+        <f>_xlfn.PERCENTILE.EXC(B2:B13,0.85)</f>
+        <v>305912.49999999983</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>254000</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>MEDIAN(B2:B13)</f>
         <v>203750</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>186000</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="array" ref="E4:E5">_xlfn.MODE.MULT(B2:B13)</f>
         <v>138000</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1">
+        <f>_xlfn.QUARTILE.EXC($B$2:$B$13,1)</f>
+        <v>139000</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>257500</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>254000</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <f>_xlfn.QUARTILE.EXC($B$2:$B$13,2)</f>
+        <v>203750</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>108000</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1">
+        <f>_xlfn.QUARTILE.EXC($B$2:$B$13,3)</f>
+        <v>256625</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>254000</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <f>MAX(B2:B13)</f>
+        <v>456250</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>138000</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <f>MIN(B2:B13)</f>
+        <v>108000</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1">
+        <f>I6-I4</f>
+        <v>117625</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>298000</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <f>E7-E8</f>
+        <v>348250</v>
+      </c>
+      <c r="F9" s="1">
+        <f>MAX(B2:B13)-MIN(B2:B13)</f>
+        <v>348250</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>199500</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1">
+        <f>STANDARDIZE(B2,$E$2,$E$12)</f>
+        <v>-0.86190325284475111</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>208000</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <f>_xlfn.VAR.S(B2:B13)</f>
+        <v>9037501420.454546</v>
+      </c>
+      <c r="F11" s="1">
+        <f>E12*E12</f>
+        <v>9037501420.454546</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>142000</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <f>_xlfn.STDEV.S(B2:B13)</f>
+        <v>95065.774180062013</v>
+      </c>
+      <c r="F12" s="1">
+        <f>SQRT(E11)</f>
+        <v>95065.774180062013</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>456250</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8">
+        <f>E12/E2</f>
+        <v>0.43223995080448768</v>
+      </c>
+      <c r="F13" s="7">
+        <f>E13*100</f>
+        <v>43.223995080448766</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
   </sheetData>
   <sortState ref="K2:K13">
